--- a/lineup_test_2/static/data/EyewitnessStimuli.xlsx
+++ b/lineup_test_2/static/data/EyewitnessStimuli.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cd8c/Dropbox/Luyao/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="35160" windowHeight="19540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="40040" windowHeight="19540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Final Set" sheetId="3" r:id="rId1"/>
@@ -17,18 +12,18 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="353">
   <si>
     <t>Confidence</t>
   </si>
@@ -936,13 +931,157 @@
     <t>Certain.  Looks like a guy I know in particular.</t>
   </si>
   <si>
-    <t>Eyewitness statement of confidence in identification</t>
-  </si>
-  <si>
     <t>Face# 5 is always selected by Eyewitness</t>
   </si>
   <si>
     <t>Face #5 is always highlighted in red</t>
+  </si>
+  <si>
+    <t>Confidence Only</t>
+  </si>
+  <si>
+    <t>Confidence &amp; Justification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fairly certain. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pretty certain. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fairly certain.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fairly.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somewhat certain. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very certain. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somewhat.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almost positive. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am extremely certain. </t>
+  </si>
+  <si>
+    <t>Completely.</t>
+  </si>
+  <si>
+    <t>I'm very certain.</t>
+  </si>
+  <si>
+    <t>Very.</t>
+  </si>
+  <si>
+    <t>I am very certain.</t>
+  </si>
+  <si>
+    <t>I am certain.</t>
+  </si>
+  <si>
+    <t>Fairly certain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moderately Certain. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pretty certain.  </t>
+  </si>
+  <si>
+    <t>I am fairly certain.</t>
+  </si>
+  <si>
+    <t>Very certain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extremely certain. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am very certain. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not too certain.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not completely certain. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certain. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am pretty sure. </t>
+  </si>
+  <si>
+    <t>Quite certain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pretty sure. </t>
+  </si>
+  <si>
+    <t>I am pretty certain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pretty Sure.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am positive. </t>
+  </si>
+  <si>
+    <t>Extremely certain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totally certain. </t>
+  </si>
+  <si>
+    <t>Positive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A strong level of certainty. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Above average certain. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almost completely certain. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definitely certain. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quite certain. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certain.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kind of certain.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somewhat Certain.  </t>
+  </si>
+  <si>
+    <t>Somewhat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kind of certain. </t>
+  </si>
+  <si>
+    <t>Pretty certain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pretty Certain. </t>
   </si>
 </sst>
 </file>
@@ -1541,53 +1680,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC242"/>
+  <dimension ref="A1:AD242"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="6" max="6" width="76.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" style="8"/>
+    <col min="7" max="7" width="42.83203125" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="16" customFormat="1" ht="18">
       <c r="A1" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="G1" s="18"/>
       <c r="H1" s="18"/>
-    </row>
-    <row r="2" spans="1:17" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="1:18" s="16" customFormat="1" ht="18">
       <c r="A2" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="18"/>
       <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="3"/>
       <c r="E3" s="6"/>
-      <c r="Q3" s="3"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="3" t="s">
         <v>229</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="Q4" s="3"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="3" t="s">
         <v>230</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="3" t="s">
         <v>231</v>
       </c>
@@ -1595,9 +1735,9 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="6"/>
-      <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="3" t="s">
         <v>233</v>
       </c>
@@ -1605,28 +1745,28 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="A10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H11" s="6" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
+      <c r="I11" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="3" customFormat="1" ht="20">
       <c r="A12" s="6" t="s">
         <v>0</v>
       </c>
@@ -1643,19 +1783,22 @@
         <v>5</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="G12" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="H12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" s="12" customFormat="1">
       <c r="A13" s="12">
         <v>60</v>
       </c>
@@ -1674,17 +1817,20 @@
       <c r="F13" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="H13" s="13">
         <v>6</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="I13" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="J13" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" s="12" customFormat="1">
       <c r="A14" s="12">
         <v>60</v>
       </c>
@@ -1703,17 +1849,20 @@
       <c r="F14" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="H14" s="13">
         <v>4</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="I14" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="J14" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" s="12" customFormat="1">
       <c r="A15" s="12">
         <v>60</v>
       </c>
@@ -1732,17 +1881,20 @@
       <c r="F15" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="H15" s="13">
         <v>5</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="I15" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="J15" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" s="12" customFormat="1">
       <c r="A16" s="12">
         <v>60</v>
       </c>
@@ -1761,17 +1913,20 @@
       <c r="F16" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="H16" s="13">
         <v>4</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="I16" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="J16" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" s="12" customFormat="1">
       <c r="A17" s="12">
         <v>60</v>
       </c>
@@ -1790,17 +1945,20 @@
       <c r="F17" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="H17" s="13">
         <v>2</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="I17" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="J17" s="12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" s="12" customFormat="1">
       <c r="A18" s="12">
         <v>60</v>
       </c>
@@ -1819,17 +1977,20 @@
       <c r="F18" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="H18" s="13">
         <v>6</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="I18" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="J18" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" s="12" customFormat="1">
       <c r="A19" s="12">
         <v>80</v>
       </c>
@@ -1848,17 +2009,20 @@
       <c r="F19" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="H19" s="13">
         <v>4</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="I19" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="J19" s="12" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" s="12" customFormat="1">
       <c r="A20" s="12">
         <v>80</v>
       </c>
@@ -1877,17 +2041,20 @@
       <c r="F20" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H20" s="13">
         <v>5</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="I20" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="J20" s="12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" s="12" customFormat="1">
       <c r="A21" s="12">
         <v>80</v>
       </c>
@@ -1906,17 +2073,20 @@
       <c r="F21" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="H21" s="13">
         <v>3</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="I21" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="J21" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" s="12" customFormat="1">
       <c r="A22" s="12">
         <v>80</v>
       </c>
@@ -1935,17 +2105,20 @@
       <c r="F22" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="H22" s="13">
         <v>4</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="I22" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="J22" s="12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" s="12" customFormat="1">
       <c r="A23" s="12">
         <v>80</v>
       </c>
@@ -1964,17 +2137,20 @@
       <c r="F23" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="H23" s="13">
         <v>2</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="I23" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="J23" s="12" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" s="12" customFormat="1">
       <c r="A24" s="12">
         <v>80</v>
       </c>
@@ -1993,17 +2169,20 @@
       <c r="F24" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="H24" s="13">
         <v>5</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="I24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="J24" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" s="12" customFormat="1">
       <c r="A25" s="12">
         <v>80</v>
       </c>
@@ -2022,17 +2201,20 @@
       <c r="F25" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="H25" s="13">
         <v>5</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="I25" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="J25" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" s="12" customFormat="1">
       <c r="A26" s="12">
         <v>80</v>
       </c>
@@ -2051,17 +2233,20 @@
       <c r="F26" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H26" s="13">
         <v>2</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="I26" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="J26" s="12" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" s="12" customFormat="1">
       <c r="A27" s="12">
         <v>100</v>
       </c>
@@ -2080,17 +2265,20 @@
       <c r="F27" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="H27" s="13">
         <v>6</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="I27" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="J27" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" s="12" customFormat="1">
       <c r="A28" s="12">
         <v>100</v>
       </c>
@@ -2109,17 +2297,20 @@
       <c r="F28" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="H28" s="13">
         <v>4</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="I28" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="J28" s="12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" s="12" customFormat="1">
       <c r="A29" s="12">
         <v>100</v>
       </c>
@@ -2138,17 +2329,20 @@
       <c r="F29" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H29" s="13">
         <v>4</v>
       </c>
-      <c r="H29" s="13" t="s">
+      <c r="I29" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="J29" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" s="12" customFormat="1">
       <c r="A30" s="12">
         <v>100</v>
       </c>
@@ -2167,17 +2361,20 @@
       <c r="F30" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="H30" s="13">
         <v>5</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="I30" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I30" s="12" t="s">
+      <c r="J30" s="12" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" s="12" customFormat="1">
       <c r="A31" s="12">
         <v>100</v>
       </c>
@@ -2196,17 +2393,20 @@
       <c r="F31" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="H31" s="13">
         <v>1</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="I31" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="I31" s="12" t="s">
+      <c r="J31" s="12" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" s="12" customFormat="1">
       <c r="A32" s="12">
         <v>100</v>
       </c>
@@ -2225,17 +2425,20 @@
       <c r="F32" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="H32" s="13">
         <v>3</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="I32" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="I32" s="12" t="s">
+      <c r="J32" s="12" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" s="12" customFormat="1">
       <c r="A33" s="12">
         <v>100</v>
       </c>
@@ -2254,17 +2457,20 @@
       <c r="F33" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="H33" s="13">
         <v>1</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="I33" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I33" s="12" t="s">
+      <c r="J33" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" s="12" customFormat="1">
       <c r="A34" s="12">
         <v>100</v>
       </c>
@@ -2283,17 +2489,20 @@
       <c r="F34" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="H34" s="13">
         <v>3</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="I34" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="I34" s="12" t="s">
+      <c r="J34" s="12" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" s="12" customFormat="1">
       <c r="A35" s="12">
         <v>100</v>
       </c>
@@ -2312,17 +2521,20 @@
       <c r="F35" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H35" s="13">
         <v>6</v>
       </c>
-      <c r="H35" s="13" t="s">
+      <c r="I35" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="I35" s="12" t="s">
+      <c r="J35" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" s="12" customFormat="1">
       <c r="A36" s="12">
         <v>100</v>
       </c>
@@ -2341,27 +2553,30 @@
       <c r="F36" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="H36" s="13">
         <v>4</v>
       </c>
-      <c r="H36" s="13" t="s">
+      <c r="I36" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="I36" s="12" t="s">
+      <c r="J36" s="12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" s="12" customFormat="1">
       <c r="E37" s="15"/>
-      <c r="G37" s="13"/>
       <c r="H37" s="13"/>
-    </row>
-    <row r="38" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I37" s="13"/>
+    </row>
+    <row r="38" spans="1:10" s="12" customFormat="1">
       <c r="E38" s="15"/>
-      <c r="G38" s="13"/>
       <c r="H38" s="13"/>
-    </row>
-    <row r="39" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I38" s="13"/>
+    </row>
+    <row r="39" spans="1:10" s="12" customFormat="1">
       <c r="A39" s="12">
         <v>60</v>
       </c>
@@ -2380,17 +2595,20 @@
       <c r="F39" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="H39" s="13">
         <v>5</v>
       </c>
-      <c r="H39" s="13" t="s">
+      <c r="I39" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="I39" s="12" t="s">
+      <c r="J39" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" s="12" customFormat="1">
       <c r="A40" s="12">
         <v>60</v>
       </c>
@@ -2409,17 +2627,20 @@
       <c r="F40" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G40" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="H40" s="13">
         <v>4</v>
       </c>
-      <c r="H40" s="13" t="s">
+      <c r="I40" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="I40" s="12" t="s">
+      <c r="J40" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" s="12" customFormat="1">
       <c r="A41" s="12">
         <v>60</v>
       </c>
@@ -2438,17 +2659,20 @@
       <c r="F41" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G41" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="H41" s="13">
         <v>4</v>
       </c>
-      <c r="H41" s="13" t="s">
+      <c r="I41" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="I41" s="12" t="s">
+      <c r="J41" s="12" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" s="12" customFormat="1">
       <c r="A42" s="12">
         <v>60</v>
       </c>
@@ -2467,17 +2691,20 @@
       <c r="F42" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G42" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="H42" s="13">
         <v>5</v>
       </c>
-      <c r="H42" s="13" t="s">
+      <c r="I42" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I42" s="12" t="s">
+      <c r="J42" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" s="12" customFormat="1">
       <c r="A43" s="12">
         <v>60</v>
       </c>
@@ -2496,17 +2723,20 @@
       <c r="F43" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G43" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="H43" s="13">
         <v>6</v>
       </c>
-      <c r="H43" s="13" t="s">
+      <c r="I43" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="I43" s="12" t="s">
+      <c r="J43" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" s="12" customFormat="1">
       <c r="A44" s="12">
         <v>60</v>
       </c>
@@ -2525,17 +2755,20 @@
       <c r="F44" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G44" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="H44" s="13">
         <v>1</v>
       </c>
-      <c r="H44" s="13" t="s">
+      <c r="I44" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I44" s="12" t="s">
+      <c r="J44" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" s="12" customFormat="1">
       <c r="A45" s="12">
         <v>60</v>
       </c>
@@ -2554,17 +2787,20 @@
       <c r="F45" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G45" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="H45" s="13">
         <v>5</v>
       </c>
-      <c r="H45" s="13" t="s">
+      <c r="I45" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I45" s="12" t="s">
+      <c r="J45" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" s="12" customFormat="1">
       <c r="A46" s="12">
         <v>60</v>
       </c>
@@ -2583,17 +2819,20 @@
       <c r="F46" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G46" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="H46" s="13">
         <v>2</v>
       </c>
-      <c r="H46" s="13" t="s">
+      <c r="I46" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="I46" s="12" t="s">
+      <c r="J46" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" s="12" customFormat="1">
       <c r="A47" s="12">
         <v>80</v>
       </c>
@@ -2612,17 +2851,20 @@
       <c r="F47" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G47" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="H47" s="13">
         <v>5</v>
       </c>
-      <c r="H47" s="13" t="s">
+      <c r="I47" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="I47" s="12" t="s">
+      <c r="J47" s="12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" s="12" customFormat="1">
       <c r="A48" s="12">
         <v>80</v>
       </c>
@@ -2641,17 +2883,20 @@
       <c r="F48" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="G48" s="13">
+      <c r="G48" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="H48" s="13">
         <v>3</v>
       </c>
-      <c r="H48" s="13" t="s">
+      <c r="I48" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I48" s="12" t="s">
+      <c r="J48" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" s="12" customFormat="1">
       <c r="A49" s="12">
         <v>80</v>
       </c>
@@ -2670,17 +2915,20 @@
       <c r="F49" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G49" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="H49" s="13">
         <v>1</v>
       </c>
-      <c r="H49" s="13" t="s">
+      <c r="I49" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="I49" s="12" t="s">
+      <c r="J49" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" s="12" customFormat="1">
       <c r="A50" s="12">
         <v>80</v>
       </c>
@@ -2699,17 +2947,20 @@
       <c r="F50" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G50" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="H50" s="13">
         <v>4</v>
       </c>
-      <c r="H50" s="13" t="s">
+      <c r="I50" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="I50" s="12" t="s">
+      <c r="J50" s="12" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" s="12" customFormat="1">
       <c r="A51" s="12">
         <v>80</v>
       </c>
@@ -2728,17 +2979,20 @@
       <c r="F51" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G51" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H51" s="13">
         <v>5</v>
       </c>
-      <c r="H51" s="13" t="s">
+      <c r="I51" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I51" s="12" t="s">
+      <c r="J51" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" s="12" customFormat="1">
       <c r="A52" s="12">
         <v>80</v>
       </c>
@@ -2757,17 +3011,20 @@
       <c r="F52" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G52" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="H52" s="13">
         <v>4</v>
       </c>
-      <c r="H52" s="13" t="s">
+      <c r="I52" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="I52" s="12" t="s">
+      <c r="J52" s="12" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" s="12" customFormat="1">
       <c r="A53" s="12">
         <v>80</v>
       </c>
@@ -2786,17 +3043,20 @@
       <c r="F53" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="G53" s="13">
+      <c r="G53" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="H53" s="13">
         <v>6</v>
       </c>
-      <c r="H53" s="13" t="s">
+      <c r="I53" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="I53" s="12" t="s">
+      <c r="J53" s="12" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" s="12" customFormat="1">
       <c r="A54" s="12">
         <v>80</v>
       </c>
@@ -2815,17 +3075,20 @@
       <c r="F54" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="G54" s="13">
+      <c r="G54" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H54" s="13">
         <v>2</v>
       </c>
-      <c r="H54" s="13" t="s">
+      <c r="I54" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="I54" s="12" t="s">
+      <c r="J54" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" s="12" customFormat="1">
       <c r="A55" s="12">
         <v>80</v>
       </c>
@@ -2844,17 +3107,20 @@
       <c r="F55" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="G55" s="13">
+      <c r="G55" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="H55" s="13">
         <v>2</v>
       </c>
-      <c r="H55" s="13" t="s">
+      <c r="I55" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I55" s="12" t="s">
+      <c r="J55" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" s="12" customFormat="1">
       <c r="A56" s="12">
         <v>80</v>
       </c>
@@ -2873,17 +3139,20 @@
       <c r="F56" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G56" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H56" s="13">
         <v>1</v>
       </c>
-      <c r="H56" s="13" t="s">
+      <c r="I56" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="I56" s="12" t="s">
+      <c r="J56" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" s="12" customFormat="1">
       <c r="A57" s="12">
         <v>100</v>
       </c>
@@ -2902,17 +3171,20 @@
       <c r="F57" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G57" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="H57" s="13">
         <v>4</v>
       </c>
-      <c r="H57" s="13" t="s">
+      <c r="I57" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="I57" s="12" t="s">
+      <c r="J57" s="12" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" s="12" customFormat="1">
       <c r="A58" s="12">
         <v>100</v>
       </c>
@@ -2931,17 +3203,20 @@
       <c r="F58" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G58" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="H58" s="13">
         <v>1</v>
       </c>
-      <c r="H58" s="13" t="s">
+      <c r="I58" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I58" s="12" t="s">
+      <c r="J58" s="12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" s="12" customFormat="1">
       <c r="A59" s="12">
         <v>100</v>
       </c>
@@ -2960,17 +3235,20 @@
       <c r="F59" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G59" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="H59" s="13">
         <v>3</v>
       </c>
-      <c r="H59" s="13" t="s">
+      <c r="I59" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I59" s="12" t="s">
+      <c r="J59" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" s="12" customFormat="1">
       <c r="A60" s="12">
         <v>100</v>
       </c>
@@ -2989,17 +3267,20 @@
       <c r="F60" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="G60" s="13">
+      <c r="G60" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="H60" s="13">
         <v>5</v>
       </c>
-      <c r="H60" s="13" t="s">
+      <c r="I60" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I60" s="12" t="s">
+      <c r="J60" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" s="12" customFormat="1">
       <c r="A61" s="12">
         <v>100</v>
       </c>
@@ -3018,17 +3299,20 @@
       <c r="F61" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G61" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H61" s="13">
         <v>6</v>
       </c>
-      <c r="H61" s="13" t="s">
+      <c r="I61" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="I61" s="12" t="s">
+      <c r="J61" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" s="12" customFormat="1">
       <c r="A62" s="12">
         <v>100</v>
       </c>
@@ -3047,17 +3331,20 @@
       <c r="F62" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G62" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="H62" s="13">
         <v>6</v>
       </c>
-      <c r="H62" s="13" t="s">
+      <c r="I62" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="I62" s="12" t="s">
+      <c r="J62" s="12" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" s="12" customFormat="1">
       <c r="A63" s="12">
         <v>100</v>
       </c>
@@ -3076,17 +3363,20 @@
       <c r="F63" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G63" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H63" s="13">
         <v>1</v>
       </c>
-      <c r="H63" s="13" t="s">
+      <c r="I63" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="I63" s="12" t="s">
+      <c r="J63" s="12" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" s="12" customFormat="1">
       <c r="A64" s="12">
         <v>100</v>
       </c>
@@ -3105,27 +3395,30 @@
       <c r="F64" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G64" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H64" s="13">
         <v>3</v>
       </c>
-      <c r="H64" s="13" t="s">
+      <c r="I64" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="I64" s="12" t="s">
+      <c r="J64" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:30" s="12" customFormat="1">
       <c r="E65" s="15"/>
-      <c r="G65" s="13"/>
       <c r="H65" s="13"/>
-    </row>
-    <row r="66" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I65" s="13"/>
+    </row>
+    <row r="66" spans="1:30" s="12" customFormat="1">
       <c r="E66" s="15"/>
-      <c r="G66" s="13"/>
       <c r="H66" s="13"/>
-    </row>
-    <row r="67" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I66" s="13"/>
+    </row>
+    <row r="67" spans="1:30" s="12" customFormat="1">
       <c r="A67" s="12">
         <v>60</v>
       </c>
@@ -3144,17 +3437,20 @@
       <c r="F67" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="G67" s="13">
+      <c r="G67" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="H67" s="13">
         <v>4</v>
       </c>
-      <c r="H67" s="13" t="s">
+      <c r="I67" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="I67" s="12" t="s">
+      <c r="J67" s="12" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="68" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:30" s="12" customFormat="1">
       <c r="A68" s="12">
         <v>60</v>
       </c>
@@ -3173,19 +3469,22 @@
       <c r="F68" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="G68" s="13">
+      <c r="G68" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="H68" s="13">
         <v>2</v>
       </c>
-      <c r="H68" s="13" t="s">
+      <c r="I68" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="I68" s="12" t="s">
+      <c r="J68" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="AB68" s="13"/>
-      <c r="AC68" s="14"/>
-    </row>
-    <row r="69" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC68" s="13"/>
+      <c r="AD68" s="14"/>
+    </row>
+    <row r="69" spans="1:30" s="12" customFormat="1">
       <c r="A69" s="12">
         <v>60</v>
       </c>
@@ -3204,19 +3503,22 @@
       <c r="F69" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="G69" s="13">
+      <c r="G69" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="H69" s="13">
         <v>1</v>
       </c>
-      <c r="H69" s="13" t="s">
+      <c r="I69" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="I69" s="12" t="s">
+      <c r="J69" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AB69" s="13"/>
-      <c r="AC69" s="14"/>
-    </row>
-    <row r="70" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC69" s="13"/>
+      <c r="AD69" s="14"/>
+    </row>
+    <row r="70" spans="1:30" s="12" customFormat="1">
       <c r="A70" s="12">
         <v>60</v>
       </c>
@@ -3235,19 +3537,22 @@
       <c r="F70" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="G70" s="13">
+      <c r="G70" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="H70" s="13">
         <v>1</v>
       </c>
-      <c r="H70" s="13" t="s">
+      <c r="I70" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="I70" s="12" t="s">
+      <c r="J70" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="AB70" s="13"/>
-      <c r="AC70" s="14"/>
-    </row>
-    <row r="71" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC70" s="13"/>
+      <c r="AD70" s="14"/>
+    </row>
+    <row r="71" spans="1:30" s="12" customFormat="1">
       <c r="A71" s="12">
         <v>80</v>
       </c>
@@ -3266,19 +3571,22 @@
       <c r="F71" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="G71" s="13">
+      <c r="G71" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="H71" s="13">
         <v>4</v>
       </c>
-      <c r="H71" s="13" t="s">
+      <c r="I71" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="I71" s="12" t="s">
+      <c r="J71" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="AB71" s="13"/>
-      <c r="AC71" s="14"/>
-    </row>
-    <row r="72" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC71" s="13"/>
+      <c r="AD71" s="14"/>
+    </row>
+    <row r="72" spans="1:30" s="12" customFormat="1">
       <c r="A72" s="12">
         <v>80</v>
       </c>
@@ -3297,19 +3605,22 @@
       <c r="F72" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="G72" s="13">
+      <c r="G72" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="H72" s="13">
         <v>1</v>
       </c>
-      <c r="H72" s="13" t="s">
+      <c r="I72" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="I72" s="12" t="s">
+      <c r="J72" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="AB72" s="13"/>
-      <c r="AC72" s="14"/>
-    </row>
-    <row r="73" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC72" s="13"/>
+      <c r="AD72" s="14"/>
+    </row>
+    <row r="73" spans="1:30" s="12" customFormat="1">
       <c r="A73" s="12">
         <v>80</v>
       </c>
@@ -3328,17 +3639,20 @@
       <c r="F73" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G73" s="13">
+      <c r="G73" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="H73" s="13">
         <v>1</v>
       </c>
-      <c r="H73" s="13" t="s">
+      <c r="I73" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="I73" s="12" t="s">
+      <c r="J73" s="12" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="74" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:30" s="12" customFormat="1">
       <c r="A74" s="12">
         <v>80</v>
       </c>
@@ -3357,17 +3671,20 @@
       <c r="F74" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="G74" s="13">
+      <c r="G74" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="H74" s="13">
         <v>3</v>
       </c>
-      <c r="H74" s="13" t="s">
+      <c r="I74" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="I74" s="12" t="s">
+      <c r="J74" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:30" s="12" customFormat="1">
       <c r="A75" s="12">
         <v>80</v>
       </c>
@@ -3386,19 +3703,22 @@
       <c r="F75" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="G75" s="13">
+      <c r="G75" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="H75" s="13">
         <v>3</v>
       </c>
-      <c r="H75" s="13" t="s">
+      <c r="I75" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="I75" s="12" t="s">
+      <c r="J75" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AB75" s="13"/>
-      <c r="AC75" s="14"/>
-    </row>
-    <row r="76" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC75" s="13"/>
+      <c r="AD75" s="14"/>
+    </row>
+    <row r="76" spans="1:30" s="12" customFormat="1">
       <c r="A76" s="12">
         <v>80</v>
       </c>
@@ -3417,19 +3737,22 @@
       <c r="F76" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="G76" s="13">
+      <c r="G76" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="H76" s="13">
         <v>4</v>
       </c>
-      <c r="H76" s="13" t="s">
+      <c r="I76" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="I76" s="12" t="s">
+      <c r="J76" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="AB76" s="13"/>
-      <c r="AC76" s="14"/>
-    </row>
-    <row r="77" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC76" s="13"/>
+      <c r="AD76" s="14"/>
+    </row>
+    <row r="77" spans="1:30" s="12" customFormat="1">
       <c r="A77" s="12">
         <v>80</v>
       </c>
@@ -3448,19 +3771,22 @@
       <c r="F77" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="G77" s="13">
+      <c r="G77" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="H77" s="13">
         <v>1</v>
       </c>
-      <c r="H77" s="13" t="s">
+      <c r="I77" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="I77" s="12" t="s">
+      <c r="J77" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AB77" s="13"/>
-      <c r="AC77" s="14"/>
-    </row>
-    <row r="78" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC77" s="13"/>
+      <c r="AD77" s="14"/>
+    </row>
+    <row r="78" spans="1:30" s="12" customFormat="1">
       <c r="A78" s="12">
         <v>80</v>
       </c>
@@ -3479,19 +3805,22 @@
       <c r="F78" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="G78" s="13">
+      <c r="G78" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="H78" s="13">
         <v>3</v>
       </c>
-      <c r="H78" s="13" t="s">
+      <c r="I78" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="I78" s="12" t="s">
+      <c r="J78" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="AB78" s="13"/>
-      <c r="AC78" s="14"/>
-    </row>
-    <row r="79" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC78" s="13"/>
+      <c r="AD78" s="14"/>
+    </row>
+    <row r="79" spans="1:30" s="12" customFormat="1">
       <c r="A79" s="12">
         <v>100</v>
       </c>
@@ -3510,19 +3839,22 @@
       <c r="F79" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="G79" s="13">
+      <c r="G79" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="H79" s="13">
         <v>6</v>
       </c>
-      <c r="H79" s="13" t="s">
+      <c r="I79" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="I79" s="12" t="s">
+      <c r="J79" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="AB79" s="13"/>
-      <c r="AC79" s="14"/>
-    </row>
-    <row r="80" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC79" s="13"/>
+      <c r="AD79" s="14"/>
+    </row>
+    <row r="80" spans="1:30" s="12" customFormat="1">
       <c r="A80" s="12">
         <v>100</v>
       </c>
@@ -3541,19 +3873,22 @@
       <c r="F80" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="G80" s="13">
+      <c r="G80" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H80" s="13">
         <v>2</v>
       </c>
-      <c r="H80" s="13" t="s">
+      <c r="I80" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="I80" s="12" t="s">
+      <c r="J80" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="AB80" s="13"/>
-      <c r="AC80" s="14"/>
-    </row>
-    <row r="81" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC80" s="13"/>
+      <c r="AD80" s="14"/>
+    </row>
+    <row r="81" spans="1:30" s="12" customFormat="1">
       <c r="A81" s="12">
         <v>100</v>
       </c>
@@ -3572,19 +3907,22 @@
       <c r="F81" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="G81" s="13">
+      <c r="G81" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H81" s="13">
         <v>4</v>
       </c>
-      <c r="H81" s="13" t="s">
+      <c r="I81" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="I81" s="12" t="s">
+      <c r="J81" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="AB81" s="13"/>
-      <c r="AC81" s="14"/>
-    </row>
-    <row r="82" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC81" s="13"/>
+      <c r="AD81" s="14"/>
+    </row>
+    <row r="82" spans="1:30" s="12" customFormat="1">
       <c r="A82" s="12">
         <v>100</v>
       </c>
@@ -3603,19 +3941,22 @@
       <c r="F82" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="G82" s="13">
+      <c r="G82" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="H82" s="13">
         <v>2</v>
       </c>
-      <c r="H82" s="13" t="s">
+      <c r="I82" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="I82" s="12" t="s">
+      <c r="J82" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="AB82" s="13"/>
-      <c r="AC82" s="14"/>
-    </row>
-    <row r="83" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC82" s="13"/>
+      <c r="AD82" s="14"/>
+    </row>
+    <row r="83" spans="1:30" s="12" customFormat="1">
       <c r="A83" s="12">
         <v>100</v>
       </c>
@@ -3634,19 +3975,22 @@
       <c r="F83" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="G83" s="13">
+      <c r="G83" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="H83" s="13">
         <v>4</v>
       </c>
-      <c r="H83" s="13" t="s">
+      <c r="I83" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="I83" s="12" t="s">
+      <c r="J83" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="AB83" s="13"/>
-      <c r="AC83" s="14"/>
-    </row>
-    <row r="84" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC83" s="13"/>
+      <c r="AD83" s="14"/>
+    </row>
+    <row r="84" spans="1:30" s="12" customFormat="1">
       <c r="A84" s="12">
         <v>100</v>
       </c>
@@ -3665,19 +4009,22 @@
       <c r="F84" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="G84" s="13">
+      <c r="G84" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="H84" s="13">
         <v>5</v>
       </c>
-      <c r="H84" s="13" t="s">
+      <c r="I84" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I84" s="12" t="s">
+      <c r="J84" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AB84" s="13"/>
-      <c r="AC84" s="14"/>
-    </row>
-    <row r="85" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC84" s="13"/>
+      <c r="AD84" s="14"/>
+    </row>
+    <row r="85" spans="1:30" s="12" customFormat="1">
       <c r="A85" s="12">
         <v>100</v>
       </c>
@@ -3696,19 +4043,22 @@
       <c r="F85" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="G85" s="13">
+      <c r="G85" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="H85" s="13">
         <v>2</v>
       </c>
-      <c r="H85" s="13" t="s">
+      <c r="I85" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="I85" s="12" t="s">
+      <c r="J85" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="AB85" s="13"/>
-      <c r="AC85" s="14"/>
-    </row>
-    <row r="86" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC85" s="13"/>
+      <c r="AD85" s="14"/>
+    </row>
+    <row r="86" spans="1:30" s="12" customFormat="1">
       <c r="A86" s="12">
         <v>100</v>
       </c>
@@ -3727,19 +4077,22 @@
       <c r="F86" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="G86" s="13">
+      <c r="G86" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="H86" s="13">
         <v>5</v>
       </c>
-      <c r="H86" s="13" t="s">
+      <c r="I86" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="I86" s="12" t="s">
+      <c r="J86" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="AB86" s="13"/>
-      <c r="AC86" s="14"/>
-    </row>
-    <row r="87" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC86" s="13"/>
+      <c r="AD86" s="14"/>
+    </row>
+    <row r="87" spans="1:30" s="12" customFormat="1">
       <c r="A87" s="12">
         <v>100</v>
       </c>
@@ -3758,19 +4111,22 @@
       <c r="F87" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="G87" s="13">
+      <c r="G87" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="H87" s="13">
         <v>5</v>
       </c>
-      <c r="H87" s="13" t="s">
+      <c r="I87" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="I87" s="12" t="s">
+      <c r="J87" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="AB87" s="13"/>
-      <c r="AC87" s="14"/>
-    </row>
-    <row r="88" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC87" s="13"/>
+      <c r="AD87" s="14"/>
+    </row>
+    <row r="88" spans="1:30" s="12" customFormat="1">
       <c r="A88" s="12">
         <v>100</v>
       </c>
@@ -3789,19 +4145,22 @@
       <c r="F88" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="G88" s="13">
+      <c r="G88" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="H88" s="13">
         <v>3</v>
       </c>
-      <c r="H88" s="13" t="s">
+      <c r="I88" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="I88" s="12" t="s">
+      <c r="J88" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="AB88" s="13"/>
-      <c r="AC88" s="14"/>
-    </row>
-    <row r="89" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC88" s="13"/>
+      <c r="AD88" s="14"/>
+    </row>
+    <row r="89" spans="1:30" s="12" customFormat="1">
       <c r="A89" s="12">
         <v>100</v>
       </c>
@@ -3820,30 +4179,35 @@
       <c r="F89" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="G89" s="13">
+      <c r="G89" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="H89" s="13">
         <v>1</v>
       </c>
-      <c r="H89" s="13" t="s">
+      <c r="I89" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="I89" s="12" t="s">
+      <c r="J89" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:30">
       <c r="E90" s="6"/>
       <c r="F90" s="12"/>
-    </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="G90" s="12"/>
+    </row>
+    <row r="91" spans="1:30">
       <c r="E91" s="6"/>
       <c r="F91" s="12"/>
-    </row>
-    <row r="92" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G91" s="12"/>
+    </row>
+    <row r="92" spans="1:30" s="12" customFormat="1">
       <c r="E92" s="15"/>
-      <c r="G92" s="13"/>
       <c r="H92" s="13"/>
-    </row>
-    <row r="93" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I92" s="13"/>
+    </row>
+    <row r="93" spans="1:30" s="12" customFormat="1">
       <c r="A93" s="12">
         <v>80</v>
       </c>
@@ -3862,17 +4226,20 @@
       <c r="F93" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="G93" s="13">
+      <c r="G93" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="H93" s="13">
         <v>3</v>
       </c>
-      <c r="H93" s="13" t="s">
+      <c r="I93" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="I93" s="12" t="s">
+      <c r="J93" s="12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="94" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:30" s="12" customFormat="1">
       <c r="A94" s="12">
         <v>80</v>
       </c>
@@ -3891,17 +4258,20 @@
       <c r="F94" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="G94" s="13">
+      <c r="G94" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="H94" s="13">
         <v>6</v>
       </c>
-      <c r="H94" s="13" t="s">
+      <c r="I94" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="I94" s="12" t="s">
+      <c r="J94" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:30" s="12" customFormat="1">
       <c r="A95" s="12">
         <v>80</v>
       </c>
@@ -3920,17 +4290,20 @@
       <c r="F95" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="G95" s="13">
+      <c r="G95" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="H95" s="13">
         <v>5</v>
       </c>
-      <c r="H95" s="13" t="s">
+      <c r="I95" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="I95" s="12" t="s">
+      <c r="J95" s="12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:30" s="12" customFormat="1">
       <c r="A96" s="12">
         <v>80</v>
       </c>
@@ -3949,17 +4322,20 @@
       <c r="F96" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="G96" s="13">
+      <c r="G96" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="H96" s="13">
         <v>4</v>
       </c>
-      <c r="H96" s="13" t="s">
+      <c r="I96" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="I96" s="12" t="s">
+      <c r="J96" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" s="12" customFormat="1">
       <c r="A97" s="12">
         <v>80</v>
       </c>
@@ -3978,17 +4354,20 @@
       <c r="F97" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="G97" s="13">
+      <c r="G97" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="H97" s="13">
         <v>2</v>
       </c>
-      <c r="H97" s="13" t="s">
+      <c r="I97" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="I97" s="12" t="s">
+      <c r="J97" s="12" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" s="12" customFormat="1">
       <c r="A98" s="12">
         <v>80</v>
       </c>
@@ -4007,17 +4386,20 @@
       <c r="F98" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="G98" s="13">
+      <c r="G98" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="H98" s="13">
         <v>5</v>
       </c>
-      <c r="H98" s="13" t="s">
+      <c r="I98" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I98" s="12" t="s">
+      <c r="J98" s="12" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" s="12" customFormat="1">
       <c r="A99" s="12">
         <v>80</v>
       </c>
@@ -4036,17 +4418,20 @@
       <c r="F99" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="G99" s="13">
+      <c r="G99" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="H99" s="13">
         <v>2</v>
       </c>
-      <c r="H99" s="13" t="s">
+      <c r="I99" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="I99" s="12" t="s">
+      <c r="J99" s="12" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" s="12" customFormat="1">
       <c r="A100" s="12">
         <v>100</v>
       </c>
@@ -4065,17 +4450,20 @@
       <c r="F100" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="G100" s="13">
+      <c r="G100" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="H100" s="13">
         <v>1</v>
       </c>
-      <c r="H100" s="13" t="s">
+      <c r="I100" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="I100" s="12" t="s">
+      <c r="J100" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" s="12" customFormat="1">
       <c r="A101" s="12">
         <v>100</v>
       </c>
@@ -4094,17 +4482,20 @@
       <c r="F101" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="G101" s="13">
+      <c r="G101" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="H101" s="13">
         <v>5</v>
       </c>
-      <c r="H101" s="13" t="s">
+      <c r="I101" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I101" s="12" t="s">
+      <c r="J101" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" s="12" customFormat="1">
       <c r="A102" s="12">
         <v>100</v>
       </c>
@@ -4123,17 +4514,20 @@
       <c r="F102" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="G102" s="13">
+      <c r="G102" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="H102" s="13">
         <v>4</v>
       </c>
-      <c r="H102" s="13" t="s">
+      <c r="I102" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="I102" s="12" t="s">
+      <c r="J102" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" s="12" customFormat="1">
       <c r="A103" s="12">
         <v>100</v>
       </c>
@@ -4152,22 +4546,25 @@
       <c r="F103" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="G103" s="13">
+      <c r="G103" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="H103" s="13">
         <v>4</v>
       </c>
-      <c r="H103" s="13" t="s">
+      <c r="I103" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="I103" s="12" t="s">
+      <c r="J103" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" s="12" customFormat="1">
       <c r="E104" s="15"/>
-      <c r="G104" s="13"/>
       <c r="H104" s="13"/>
-    </row>
-    <row r="105" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I104" s="13"/>
+    </row>
+    <row r="105" spans="1:10" s="12" customFormat="1">
       <c r="A105" s="12">
         <v>60</v>
       </c>
@@ -4186,17 +4583,20 @@
       <c r="F105" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="G105" s="13">
+      <c r="G105" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="H105" s="13">
         <v>1</v>
       </c>
-      <c r="H105" s="13" t="s">
+      <c r="I105" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="I105" s="12" t="s">
+      <c r="J105" s="12" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" s="12" customFormat="1">
       <c r="A106" s="12">
         <v>60</v>
       </c>
@@ -4215,17 +4615,20 @@
       <c r="F106" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="G106" s="13">
+      <c r="G106" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="H106" s="13">
         <v>4</v>
       </c>
-      <c r="H106" s="13" t="s">
+      <c r="I106" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I106" s="12" t="s">
+      <c r="J106" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" s="12" customFormat="1">
       <c r="A107" s="12">
         <v>60</v>
       </c>
@@ -4244,17 +4647,20 @@
       <c r="F107" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="G107" s="13">
+      <c r="G107" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="H107" s="13">
         <v>3</v>
       </c>
-      <c r="H107" s="13" t="s">
+      <c r="I107" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="I107" s="12" t="s">
+      <c r="J107" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" s="12" customFormat="1">
       <c r="A108" s="12">
         <v>60</v>
       </c>
@@ -4273,17 +4679,20 @@
       <c r="F108" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="G108" s="13">
+      <c r="G108" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="H108" s="13">
         <v>5</v>
       </c>
-      <c r="H108" s="13" t="s">
+      <c r="I108" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="I108" s="12" t="s">
+      <c r="J108" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" s="12" customFormat="1">
       <c r="A109" s="12">
         <v>80</v>
       </c>
@@ -4302,17 +4711,20 @@
       <c r="F109" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="G109" s="13">
+      <c r="G109" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="H109" s="13">
         <v>3</v>
       </c>
-      <c r="H109" s="13" t="s">
+      <c r="I109" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="I109" s="12" t="s">
+      <c r="J109" s="12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" s="12" customFormat="1">
       <c r="A110" s="12">
         <v>80</v>
       </c>
@@ -4331,17 +4743,20 @@
       <c r="F110" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="G110" s="13">
+      <c r="G110" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="H110" s="13">
         <v>2</v>
       </c>
-      <c r="H110" s="13" t="s">
+      <c r="I110" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="I110" s="12" t="s">
+      <c r="J110" s="12" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" s="12" customFormat="1">
       <c r="A111" s="12">
         <v>80</v>
       </c>
@@ -4360,17 +4775,20 @@
       <c r="F111" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="G111" s="13">
+      <c r="G111" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="H111" s="13">
         <v>4</v>
       </c>
-      <c r="H111" s="13" t="s">
+      <c r="I111" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="I111" s="12" t="s">
+      <c r="J111" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" s="12" customFormat="1">
       <c r="A112" s="12">
         <v>80</v>
       </c>
@@ -4389,17 +4807,20 @@
       <c r="F112" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="G112" s="13">
+      <c r="G112" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="H112" s="13">
         <v>4</v>
       </c>
-      <c r="H112" s="13" t="s">
+      <c r="I112" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="I112" s="12" t="s">
+      <c r="J112" s="12" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" s="12" customFormat="1">
       <c r="A113" s="12">
         <v>80</v>
       </c>
@@ -4418,17 +4839,20 @@
       <c r="F113" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="G113" s="13">
+      <c r="G113" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="H113" s="13">
         <v>6</v>
       </c>
-      <c r="H113" s="13" t="s">
+      <c r="I113" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="I113" s="12" t="s">
+      <c r="J113" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" s="12" customFormat="1">
       <c r="A114" s="12">
         <v>80</v>
       </c>
@@ -4447,244 +4871,268 @@
       <c r="F114" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="G114" s="13">
+      <c r="G114" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="H114" s="13">
         <v>5</v>
       </c>
-      <c r="H114" s="13" t="s">
+      <c r="I114" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="I114" s="12" t="s">
+      <c r="J114" s="12" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" s="12" customFormat="1">
       <c r="E115" s="15"/>
-      <c r="G115" s="13"/>
       <c r="H115" s="13"/>
-    </row>
-    <row r="116" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I115" s="13"/>
+    </row>
+    <row r="116" spans="1:10" s="12" customFormat="1">
       <c r="E116" s="15"/>
-      <c r="G116" s="13"/>
       <c r="H116" s="13"/>
-    </row>
-    <row r="117" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I116" s="13"/>
+    </row>
+    <row r="117" spans="1:10" s="12" customFormat="1">
       <c r="E117" s="15"/>
-      <c r="G117" s="13"/>
       <c r="H117" s="13"/>
-    </row>
-    <row r="118" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I117" s="13"/>
+    </row>
+    <row r="118" spans="1:10" s="12" customFormat="1">
       <c r="E118" s="15"/>
-      <c r="G118" s="13"/>
       <c r="H118" s="13"/>
-    </row>
-    <row r="119" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I118" s="13"/>
+    </row>
+    <row r="119" spans="1:10" s="12" customFormat="1">
       <c r="E119" s="15"/>
-      <c r="G119" s="13"/>
       <c r="H119" s="13"/>
-    </row>
-    <row r="120" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I119" s="13"/>
+    </row>
+    <row r="120" spans="1:10" s="12" customFormat="1">
       <c r="E120" s="15"/>
-      <c r="G120" s="13"/>
       <c r="H120" s="13"/>
-    </row>
-    <row r="121" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I120" s="13"/>
+    </row>
+    <row r="121" spans="1:10" s="12" customFormat="1">
       <c r="E121" s="15"/>
-      <c r="G121" s="13"/>
       <c r="H121" s="13"/>
-    </row>
-    <row r="122" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I121" s="13"/>
+    </row>
+    <row r="122" spans="1:10" s="12" customFormat="1">
       <c r="E122" s="15"/>
-      <c r="G122" s="13"/>
       <c r="H122" s="13"/>
-    </row>
-    <row r="123" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G123" s="13"/>
+      <c r="I122" s="13"/>
+    </row>
+    <row r="123" spans="1:10" s="12" customFormat="1">
       <c r="H123" s="13"/>
-    </row>
-    <row r="124" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G124" s="13"/>
+      <c r="I123" s="13"/>
+    </row>
+    <row r="124" spans="1:10" s="12" customFormat="1">
       <c r="H124" s="13"/>
-    </row>
-    <row r="125" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G125" s="13"/>
+      <c r="I124" s="13"/>
+    </row>
+    <row r="125" spans="1:10" s="12" customFormat="1">
       <c r="H125" s="13"/>
-    </row>
-    <row r="126" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G126" s="13"/>
+      <c r="I125" s="13"/>
+    </row>
+    <row r="126" spans="1:10" s="12" customFormat="1">
       <c r="H126" s="13"/>
-    </row>
-    <row r="127" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G127" s="13"/>
+      <c r="I126" s="13"/>
+    </row>
+    <row r="127" spans="1:10" s="12" customFormat="1">
       <c r="H127" s="13"/>
-    </row>
-    <row r="128" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G128" s="13"/>
+      <c r="I127" s="13"/>
+    </row>
+    <row r="128" spans="1:10" s="12" customFormat="1">
       <c r="H128" s="13"/>
-    </row>
-    <row r="129" spans="6:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G129" s="13"/>
+      <c r="I128" s="13"/>
+    </row>
+    <row r="129" spans="6:9" s="12" customFormat="1">
       <c r="H129" s="13"/>
-    </row>
-    <row r="130" spans="6:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G130" s="13"/>
+      <c r="I129" s="13"/>
+    </row>
+    <row r="130" spans="6:9" s="12" customFormat="1">
       <c r="H130" s="13"/>
-    </row>
-    <row r="131" spans="6:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G131" s="13"/>
+      <c r="I130" s="13"/>
+    </row>
+    <row r="131" spans="6:9" s="12" customFormat="1">
       <c r="H131" s="13"/>
-    </row>
-    <row r="135" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I131" s="13"/>
+    </row>
+    <row r="135" spans="6:9">
       <c r="F135" s="2"/>
-    </row>
-    <row r="137" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G135" s="2"/>
+    </row>
+    <row r="137" spans="6:9">
       <c r="F137" s="2"/>
-    </row>
-    <row r="139" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G137" s="2"/>
+    </row>
+    <row r="139" spans="6:9">
       <c r="F139" s="2"/>
-    </row>
-    <row r="145" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="G139" s="2"/>
+    </row>
+    <row r="145" spans="6:7">
       <c r="F145" s="1"/>
-    </row>
-    <row r="154" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="G145" s="1"/>
+    </row>
+    <row r="154" spans="6:7">
       <c r="F154" s="2"/>
-    </row>
-    <row r="159" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="G154" s="2"/>
+    </row>
+    <row r="159" spans="6:7">
       <c r="F159" s="2"/>
-    </row>
-    <row r="163" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="G159" s="2"/>
+    </row>
+    <row r="163" spans="6:7">
       <c r="F163" s="2"/>
-    </row>
-    <row r="164" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="G163" s="2"/>
+    </row>
+    <row r="164" spans="6:7">
       <c r="F164" s="2"/>
-    </row>
-    <row r="178" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="G164" s="2"/>
+    </row>
+    <row r="178" spans="6:7">
       <c r="F178" s="2"/>
-    </row>
-    <row r="182" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="G178" s="2"/>
+    </row>
+    <row r="182" spans="6:7">
       <c r="F182" s="2"/>
-    </row>
-    <row r="183" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="G182" s="2"/>
+    </row>
+    <row r="183" spans="6:7">
       <c r="F183" s="2"/>
-    </row>
-    <row r="186" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="G183" s="2"/>
+    </row>
+    <row r="186" spans="6:7">
       <c r="F186" s="2"/>
-    </row>
-    <row r="191" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="G186" s="2"/>
+    </row>
+    <row r="191" spans="6:7">
       <c r="F191" s="2"/>
-    </row>
-    <row r="192" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="G191" s="2"/>
+    </row>
+    <row r="192" spans="6:7">
       <c r="F192" s="2"/>
-    </row>
-    <row r="193" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="G192" s="2"/>
+    </row>
+    <row r="193" spans="6:7">
       <c r="F193" s="2"/>
-    </row>
-    <row r="196" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="G193" s="2"/>
+    </row>
+    <row r="196" spans="6:7">
       <c r="F196" s="2"/>
-    </row>
-    <row r="197" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="G196" s="2"/>
+    </row>
+    <row r="197" spans="6:7">
       <c r="F197" s="2"/>
-    </row>
-    <row r="203" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="G197" s="2"/>
+    </row>
+    <row r="203" spans="6:7">
       <c r="F203" s="5"/>
-    </row>
-    <row r="206" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="G203" s="5"/>
+    </row>
+    <row r="206" spans="6:7">
       <c r="F206" s="5"/>
-    </row>
-    <row r="209" spans="5:29" x14ac:dyDescent="0.2">
+      <c r="G206" s="5"/>
+    </row>
+    <row r="209" spans="5:30">
       <c r="E209" s="6"/>
-      <c r="S209" s="3"/>
-      <c r="AB209" s="6"/>
-      <c r="AC209" s="7"/>
-    </row>
-    <row r="212" spans="5:29" x14ac:dyDescent="0.2">
+      <c r="T209" s="3"/>
+      <c r="AC209" s="6"/>
+      <c r="AD209" s="7"/>
+    </row>
+    <row r="212" spans="5:30">
       <c r="E212" s="6"/>
-      <c r="S212" s="3"/>
-      <c r="AB212" s="6"/>
-      <c r="AC212" s="7"/>
-    </row>
-    <row r="213" spans="5:29" x14ac:dyDescent="0.2">
+      <c r="T212" s="3"/>
+      <c r="AC212" s="6"/>
+      <c r="AD212" s="7"/>
+    </row>
+    <row r="213" spans="5:30">
       <c r="E213" s="6"/>
-      <c r="S213" s="3"/>
-      <c r="AB213" s="6"/>
-      <c r="AC213" s="7"/>
-    </row>
-    <row r="215" spans="5:29" x14ac:dyDescent="0.2">
+      <c r="T213" s="3"/>
+      <c r="AC213" s="6"/>
+      <c r="AD213" s="7"/>
+    </row>
+    <row r="215" spans="5:30">
       <c r="E215" s="6"/>
-      <c r="S215" s="3"/>
-      <c r="AB215" s="6"/>
-      <c r="AC215" s="7"/>
-    </row>
-    <row r="221" spans="5:29" x14ac:dyDescent="0.2">
+      <c r="T215" s="3"/>
+      <c r="AC215" s="6"/>
+      <c r="AD215" s="7"/>
+    </row>
+    <row r="221" spans="5:30">
       <c r="E221" s="6"/>
       <c r="F221" s="2"/>
-      <c r="S221" s="3"/>
-      <c r="AB221" s="6"/>
-      <c r="AC221" s="7"/>
-    </row>
-    <row r="222" spans="5:29" x14ac:dyDescent="0.2">
+      <c r="G221" s="2"/>
+      <c r="T221" s="3"/>
+      <c r="AC221" s="6"/>
+      <c r="AD221" s="7"/>
+    </row>
+    <row r="222" spans="5:30">
       <c r="E222" s="6"/>
-      <c r="S222" s="3"/>
-      <c r="AB222" s="6"/>
-      <c r="AC222" s="7"/>
-    </row>
-    <row r="223" spans="5:29" x14ac:dyDescent="0.2">
+      <c r="T222" s="3"/>
+      <c r="AC222" s="6"/>
+      <c r="AD222" s="7"/>
+    </row>
+    <row r="223" spans="5:30">
       <c r="E223" s="6"/>
-      <c r="S223" s="3"/>
-      <c r="AB223" s="6"/>
-      <c r="AC223" s="7"/>
-    </row>
-    <row r="224" spans="5:29" x14ac:dyDescent="0.2">
+      <c r="T223" s="3"/>
+      <c r="AC223" s="6"/>
+      <c r="AD223" s="7"/>
+    </row>
+    <row r="224" spans="5:30">
       <c r="E224" s="6"/>
-      <c r="S224" s="3"/>
-      <c r="AB224" s="6"/>
-      <c r="AC224" s="7"/>
-    </row>
-    <row r="225" spans="5:29" x14ac:dyDescent="0.2">
+      <c r="T224" s="3"/>
+      <c r="AC224" s="6"/>
+      <c r="AD224" s="7"/>
+    </row>
+    <row r="225" spans="5:30">
       <c r="E225" s="6"/>
-      <c r="S225" s="3"/>
-      <c r="AB225" s="6"/>
-      <c r="AC225" s="7"/>
-    </row>
-    <row r="226" spans="5:29" x14ac:dyDescent="0.2">
+      <c r="T225" s="3"/>
+      <c r="AC225" s="6"/>
+      <c r="AD225" s="7"/>
+    </row>
+    <row r="226" spans="5:30">
       <c r="E226" s="6"/>
-      <c r="S226" s="3"/>
-      <c r="AB226" s="6"/>
-      <c r="AC226" s="7"/>
-    </row>
-    <row r="227" spans="5:29" x14ac:dyDescent="0.2">
+      <c r="T226" s="3"/>
+      <c r="AC226" s="6"/>
+      <c r="AD226" s="7"/>
+    </row>
+    <row r="227" spans="5:30">
       <c r="E227" s="6"/>
-      <c r="S227" s="3"/>
-      <c r="AB227" s="6"/>
-      <c r="AC227" s="7"/>
-    </row>
-    <row r="229" spans="5:29" x14ac:dyDescent="0.2">
+      <c r="T227" s="3"/>
+      <c r="AC227" s="6"/>
+      <c r="AD227" s="7"/>
+    </row>
+    <row r="229" spans="5:30">
       <c r="E229" s="6"/>
-      <c r="S229" s="3"/>
-      <c r="AB229" s="6"/>
-      <c r="AC229" s="7"/>
-    </row>
-    <row r="230" spans="5:29" x14ac:dyDescent="0.2">
+      <c r="T229" s="3"/>
+      <c r="AC229" s="6"/>
+      <c r="AD229" s="7"/>
+    </row>
+    <row r="230" spans="5:30">
       <c r="E230" s="6"/>
       <c r="F230" s="5"/>
-      <c r="S230" s="3"/>
-      <c r="AB230" s="6"/>
-      <c r="AC230" s="7"/>
-    </row>
-    <row r="235" spans="5:29" x14ac:dyDescent="0.2">
+      <c r="G230" s="5"/>
+      <c r="T230" s="3"/>
+      <c r="AC230" s="6"/>
+      <c r="AD230" s="7"/>
+    </row>
+    <row r="235" spans="5:30">
       <c r="E235" s="6"/>
-      <c r="S235" s="3"/>
-      <c r="AB235" s="6"/>
-      <c r="AC235" s="7"/>
-    </row>
-    <row r="241" spans="17:27" x14ac:dyDescent="0.2">
-      <c r="Q241" s="3"/>
-      <c r="Z241" s="6"/>
-      <c r="AA241" s="7"/>
-    </row>
-    <row r="242" spans="17:27" x14ac:dyDescent="0.2">
-      <c r="Q242" s="3"/>
-      <c r="Z242" s="6"/>
-      <c r="AA242" s="7"/>
+      <c r="T235" s="3"/>
+      <c r="AC235" s="6"/>
+      <c r="AD235" s="7"/>
+    </row>
+    <row r="241" spans="18:28">
+      <c r="R241" s="3"/>
+      <c r="AA241" s="6"/>
+      <c r="AB241" s="7"/>
+    </row>
+    <row r="242" spans="18:28">
+      <c r="R242" s="3"/>
+      <c r="AA242" s="6"/>
+      <c r="AB242" s="7"/>
     </row>
   </sheetData>
   <sortState ref="A35:AG37">
@@ -4692,6 +5140,11 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4699,51 +5152,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="7" max="7" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="K9" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
@@ -4775,7 +5228,7 @@
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="12" customFormat="1">
       <c r="A11" s="12">
         <v>60</v>
       </c>
@@ -4804,7 +5257,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" s="12" customFormat="1">
       <c r="A12" s="12">
         <v>60</v>
       </c>
@@ -4833,7 +5286,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" s="12" customFormat="1">
       <c r="A13" s="12">
         <v>60</v>
       </c>
@@ -4862,7 +5315,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" s="12" customFormat="1">
       <c r="A14" s="12">
         <v>60</v>
       </c>
@@ -4891,7 +5344,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" s="12" customFormat="1">
       <c r="A15" s="12">
         <v>60</v>
       </c>
@@ -4920,7 +5373,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" s="12" customFormat="1">
       <c r="A16" s="12">
         <v>60</v>
       </c>
@@ -4949,7 +5402,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" s="12" customFormat="1">
       <c r="A17" s="12">
         <v>80</v>
       </c>
@@ -4978,7 +5431,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" s="12" customFormat="1">
       <c r="A18" s="12">
         <v>80</v>
       </c>
@@ -5007,7 +5460,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" s="12" customFormat="1">
       <c r="A19" s="12">
         <v>80</v>
       </c>
@@ -5036,7 +5489,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" s="12" customFormat="1">
       <c r="A20" s="12">
         <v>80</v>
       </c>
@@ -5065,7 +5518,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" s="12" customFormat="1">
       <c r="A21" s="12">
         <v>80</v>
       </c>
@@ -5094,7 +5547,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" s="12" customFormat="1">
       <c r="A22" s="12">
         <v>80</v>
       </c>
@@ -5123,7 +5576,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" s="12" customFormat="1">
       <c r="A23" s="12">
         <v>80</v>
       </c>
@@ -5152,7 +5605,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" s="12" customFormat="1">
       <c r="A24" s="12">
         <v>80</v>
       </c>
@@ -5181,7 +5634,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" s="12" customFormat="1">
       <c r="A25" s="12">
         <v>100</v>
       </c>
@@ -5210,7 +5663,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" s="12" customFormat="1">
       <c r="A26" s="12">
         <v>100</v>
       </c>
@@ -5239,7 +5692,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" s="12" customFormat="1">
       <c r="A27" s="12">
         <v>100</v>
       </c>
@@ -5268,7 +5721,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" s="12" customFormat="1">
       <c r="A28" s="12">
         <v>100</v>
       </c>
@@ -5297,7 +5750,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" s="12" customFormat="1">
       <c r="A29" s="12">
         <v>100</v>
       </c>
@@ -5326,7 +5779,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" s="12" customFormat="1">
       <c r="A30" s="12">
         <v>100</v>
       </c>
@@ -5355,7 +5808,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" s="12" customFormat="1">
       <c r="A31" s="12">
         <v>100</v>
       </c>
@@ -5384,7 +5837,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" s="12" customFormat="1">
       <c r="A32" s="12">
         <v>100</v>
       </c>
@@ -5413,7 +5866,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" s="12" customFormat="1">
       <c r="A33" s="12">
         <v>100</v>
       </c>
@@ -5442,7 +5895,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" s="12" customFormat="1">
       <c r="A34" s="12">
         <v>100</v>
       </c>
@@ -5471,12 +5924,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11">
       <c r="A38" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>100</v>
       </c>
@@ -5505,7 +5958,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>80</v>
       </c>
@@ -5534,7 +5987,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>60</v>
       </c>
@@ -5563,7 +6016,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>80</v>
       </c>
@@ -5592,7 +6045,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>60</v>
       </c>
@@ -5621,7 +6074,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>100</v>
       </c>
@@ -5650,50 +6103,50 @@
         <v>162</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11">
       <c r="D48" s="9"/>
     </row>
-    <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" ht="18">
       <c r="A59" s="10" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" ht="18">
       <c r="A61" s="10" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" ht="18">
       <c r="A63" s="10" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1">
       <c r="A66" s="11" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" ht="18">
       <c r="A70" s="10" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" ht="18">
       <c r="A72" s="10" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" ht="18">
       <c r="A74" s="10" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" ht="18">
       <c r="A76" s="10" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" ht="18">
       <c r="A78" s="10" t="s">
         <v>202</v>
       </c>
@@ -5707,5 +6160,10 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>